--- a/Code/Results/Cases/Case_4_190/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_190/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9804410043001933</v>
+        <v>1.016472322111586</v>
       </c>
       <c r="D2">
-        <v>1.002336922838612</v>
+        <v>1.022566044205062</v>
       </c>
       <c r="E2">
-        <v>0.988755017856775</v>
+        <v>1.020082903372248</v>
       </c>
       <c r="F2">
-        <v>0.9562268532962843</v>
+        <v>1.014817610740538</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035715646689668</v>
+        <v>1.026629750270149</v>
       </c>
       <c r="J2">
-        <v>1.003222885258769</v>
+        <v>1.021691936902136</v>
       </c>
       <c r="K2">
-        <v>1.013763796343544</v>
+        <v>1.025400048454079</v>
       </c>
       <c r="L2">
-        <v>1.000373268467224</v>
+        <v>1.022924240489359</v>
       </c>
       <c r="M2">
-        <v>0.9683316874304096</v>
+        <v>1.017674625892047</v>
       </c>
       <c r="N2">
-        <v>1.004975184755365</v>
+        <v>1.011308899802676</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.985339162164885</v>
+        <v>1.017477873993032</v>
       </c>
       <c r="D3">
-        <v>1.005828391497978</v>
+        <v>1.023294433916697</v>
       </c>
       <c r="E3">
-        <v>0.9931220054374869</v>
+        <v>1.021035135247171</v>
       </c>
       <c r="F3">
-        <v>0.9639306449474228</v>
+        <v>1.016466835624503</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036713038229694</v>
+        <v>1.026763881074105</v>
       </c>
       <c r="J3">
-        <v>1.006237635265322</v>
+        <v>1.022332659818028</v>
       </c>
       <c r="K3">
-        <v>1.016387236213959</v>
+        <v>1.025935345463548</v>
       </c>
       <c r="L3">
-        <v>1.0038436545821</v>
+        <v>1.023682234416088</v>
       </c>
       <c r="M3">
-        <v>0.9750468351247574</v>
+        <v>1.019126537224389</v>
       </c>
       <c r="N3">
-        <v>1.005998491944864</v>
+        <v>1.011523902568712</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9884330163383804</v>
+        <v>1.018128356564159</v>
       </c>
       <c r="D4">
-        <v>1.008035146195865</v>
+        <v>1.023765331290641</v>
       </c>
       <c r="E4">
-        <v>0.9958858177092624</v>
+        <v>1.021651490862059</v>
       </c>
       <c r="F4">
-        <v>0.9687809185380885</v>
+        <v>1.01753364878944</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037330820980386</v>
+        <v>1.026849118350119</v>
       </c>
       <c r="J4">
-        <v>1.008137307344692</v>
+        <v>1.022746527042803</v>
       </c>
       <c r="K4">
-        <v>1.018037551838384</v>
+        <v>1.026280635116439</v>
       </c>
       <c r="L4">
-        <v>1.006034152225294</v>
+        <v>1.02417229136844</v>
       </c>
       <c r="M4">
-        <v>0.9792713292168889</v>
+        <v>1.020065227862756</v>
       </c>
       <c r="N4">
-        <v>1.006642987012306</v>
+        <v>1.011662695540496</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9897163567238141</v>
+        <v>1.018401778038899</v>
       </c>
       <c r="D5">
-        <v>1.008950782066546</v>
+        <v>1.023963195951036</v>
       </c>
       <c r="E5">
-        <v>0.9970335314311212</v>
+        <v>1.021910654573872</v>
       </c>
       <c r="F5">
-        <v>0.970789536091027</v>
+        <v>1.017982061317517</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037584104526414</v>
+        <v>1.026884579888298</v>
       </c>
       <c r="J5">
-        <v>1.008924189618392</v>
+        <v>1.022920344186586</v>
       </c>
       <c r="K5">
-        <v>1.018720444904474</v>
+        <v>1.026425535648854</v>
       </c>
       <c r="L5">
-        <v>1.006942388746154</v>
+        <v>1.024378212258574</v>
       </c>
       <c r="M5">
-        <v>0.9810199546895736</v>
+        <v>1.020459669586501</v>
       </c>
       <c r="N5">
-        <v>1.006909867327793</v>
+        <v>1.011720965636522</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9899308414887877</v>
+        <v>1.018447684306448</v>
       </c>
       <c r="D6">
-        <v>1.009103825990095</v>
+        <v>1.023996412394007</v>
       </c>
       <c r="E6">
-        <v>0.9972254229096398</v>
+        <v>1.021954172117488</v>
       </c>
       <c r="F6">
-        <v>0.9711250562324172</v>
+        <v>1.018057347516927</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037626259596483</v>
+        <v>1.026890512206775</v>
       </c>
       <c r="J6">
-        <v>1.009055635726243</v>
+        <v>1.022949518741679</v>
       </c>
       <c r="K6">
-        <v>1.018834477795628</v>
+        <v>1.026449849887026</v>
       </c>
       <c r="L6">
-        <v>1.007094158849035</v>
+        <v>1.024412781487792</v>
       </c>
       <c r="M6">
-        <v>0.9813119950397993</v>
+        <v>1.020525887483533</v>
       </c>
       <c r="N6">
-        <v>1.006954443779712</v>
+        <v>1.011730744843457</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9884502314426724</v>
+        <v>1.018132010196823</v>
       </c>
       <c r="D7">
-        <v>1.00804742784209</v>
+        <v>1.023767975563432</v>
       </c>
       <c r="E7">
-        <v>0.9959012084800742</v>
+        <v>1.021654953631876</v>
       </c>
       <c r="F7">
-        <v>0.9688078751268629</v>
+        <v>1.017539640788439</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037334230419928</v>
+        <v>1.026849593651607</v>
       </c>
       <c r="J7">
-        <v>1.008147867213542</v>
+        <v>1.022748850273686</v>
       </c>
       <c r="K7">
-        <v>1.018046718999275</v>
+        <v>1.026282572302959</v>
       </c>
       <c r="L7">
-        <v>1.006046337143597</v>
+        <v>1.024175043282067</v>
       </c>
       <c r="M7">
-        <v>0.9792947999709648</v>
+        <v>1.020070499127174</v>
       </c>
       <c r="N7">
-        <v>1.006646568849644</v>
+        <v>1.011663474456582</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9821124947757692</v>
+        <v>1.016812190223494</v>
       </c>
       <c r="D8">
-        <v>1.003528039147165</v>
+        <v>1.022812293673144</v>
       </c>
       <c r="E8">
-        <v>0.9902440762873133</v>
+        <v>1.020404673873604</v>
       </c>
       <c r="F8">
-        <v>0.9588593751479589</v>
+        <v>1.015375049801406</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036058542696022</v>
+        <v>1.026675402174423</v>
       </c>
       <c r="J8">
-        <v>1.004252613209083</v>
+        <v>1.021908622307984</v>
       </c>
       <c r="K8">
-        <v>1.014660432043384</v>
+        <v>1.025581178958053</v>
       </c>
       <c r="L8">
-        <v>1.001557839805467</v>
+        <v>1.023180494479121</v>
       </c>
       <c r="M8">
-        <v>0.9706270478721489</v>
+        <v>1.018165473980264</v>
       </c>
       <c r="N8">
-        <v>1.005324771801847</v>
+        <v>1.011381629010824</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9703278382388215</v>
+        <v>1.014485103668999</v>
       </c>
       <c r="D9">
-        <v>0.9951394163065733</v>
+        <v>1.021125054074081</v>
       </c>
       <c r="E9">
-        <v>0.9797705412935048</v>
+        <v>1.018203016925073</v>
       </c>
       <c r="F9">
-        <v>0.9402095754768319</v>
+        <v>1.011557802582353</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033590744182115</v>
+        <v>1.026356554546336</v>
       </c>
       <c r="J9">
-        <v>0.9969737363646208</v>
+        <v>1.020422468778862</v>
       </c>
       <c r="K9">
-        <v>1.008311848431903</v>
+        <v>1.024336931806873</v>
       </c>
       <c r="L9">
-        <v>0.9932005818271371</v>
+        <v>1.021424765091927</v>
       </c>
       <c r="M9">
-        <v>0.9543534010166013</v>
+        <v>1.014802231285352</v>
       </c>
       <c r="N9">
-        <v>1.002852542110022</v>
+        <v>1.010882462930287</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9619986684983762</v>
+        <v>1.012932713573918</v>
       </c>
       <c r="D10">
-        <v>0.9892259391739169</v>
+        <v>1.019998078023773</v>
       </c>
       <c r="E10">
-        <v>0.9724016372932842</v>
+        <v>1.016736219957202</v>
       </c>
       <c r="F10">
-        <v>0.9268853166380728</v>
+        <v>1.009010539670433</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031784602456836</v>
+        <v>1.026135993124235</v>
       </c>
       <c r="J10">
-        <v>0.9918055755942675</v>
+        <v>1.019427921756769</v>
       </c>
       <c r="K10">
-        <v>1.0037924860815</v>
+        <v>1.023501841050101</v>
       </c>
       <c r="L10">
-        <v>0.9872877321728545</v>
+        <v>1.02025208781723</v>
       </c>
       <c r="M10">
-        <v>0.9427133090949302</v>
+        <v>1.012555423550064</v>
       </c>
       <c r="N10">
-        <v>1.001096125418986</v>
+        <v>1.010547984612515</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9582652505208451</v>
+        <v>1.012260260053303</v>
       </c>
       <c r="D11">
-        <v>0.9865802486102584</v>
+        <v>1.019509575322183</v>
       </c>
       <c r="E11">
-        <v>0.9691072465123689</v>
+        <v>1.016101303806831</v>
       </c>
       <c r="F11">
-        <v>0.9208683263707497</v>
+        <v>1.007906871740349</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030961019619954</v>
+        <v>1.026038591519975</v>
       </c>
       <c r="J11">
-        <v>0.989483557035896</v>
+        <v>1.018996366884445</v>
       </c>
       <c r="K11">
-        <v>1.001759758220149</v>
+        <v>1.023138907842106</v>
       </c>
       <c r="L11">
-        <v>0.9846362567933498</v>
+        <v>1.019743777373642</v>
       </c>
       <c r="M11">
-        <v>0.9374545539053331</v>
+        <v>1.011581344162813</v>
       </c>
       <c r="N11">
-        <v>1.000306829328865</v>
+        <v>1.010402746352187</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9568580349295723</v>
+        <v>1.012010440701822</v>
       </c>
       <c r="D12">
-        <v>0.9855838790899717</v>
+        <v>1.019328046255483</v>
       </c>
       <c r="E12">
-        <v>0.9678668598882518</v>
+        <v>1.015865499430317</v>
       </c>
       <c r="F12">
-        <v>0.9185926206413577</v>
+        <v>1.007496808707299</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030648547854142</v>
+        <v>1.026002127198937</v>
       </c>
       <c r="J12">
-        <v>0.9886075167715328</v>
+        <v>1.018835930694771</v>
       </c>
       <c r="K12">
-        <v>1.000992580804181</v>
+        <v>1.02300389758628</v>
       </c>
       <c r="L12">
-        <v>0.9836367062226724</v>
+        <v>1.01955488726339</v>
       </c>
       <c r="M12">
-        <v>0.9354653642892425</v>
+        <v>1.01121934052614</v>
       </c>
       <c r="N12">
-        <v>1.000009034385885</v>
+        <v>1.010348737047762</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9571608373490493</v>
+        <v>1.012064029640546</v>
       </c>
       <c r="D13">
-        <v>0.9857982357743107</v>
+        <v>1.019366988361243</v>
       </c>
       <c r="E13">
-        <v>0.9681337024607203</v>
+        <v>1.015916078845573</v>
       </c>
       <c r="F13">
-        <v>0.9190826721347166</v>
+        <v>1.00758477380829</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030715876311736</v>
+        <v>1.026009961818038</v>
       </c>
       <c r="J13">
-        <v>0.9887960584718783</v>
+        <v>1.018870351037941</v>
       </c>
       <c r="K13">
-        <v>1.001157704733689</v>
+        <v>1.023032866832798</v>
       </c>
       <c r="L13">
-        <v>0.9838517941050469</v>
+        <v>1.019595408511232</v>
       </c>
       <c r="M13">
-        <v>0.935893727417367</v>
+        <v>1.01129700012422</v>
       </c>
       <c r="N13">
-        <v>1.000073126348673</v>
+        <v>1.010360325006422</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9581493556095718</v>
+        <v>1.012239610735175</v>
       </c>
       <c r="D14">
-        <v>0.9864981719507563</v>
+        <v>1.01949457165269</v>
       </c>
       <c r="E14">
-        <v>0.9690050635096512</v>
+        <v>1.016081811500418</v>
       </c>
       <c r="F14">
-        <v>0.9206810687662133</v>
+        <v>1.007872978128622</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030935326326485</v>
+        <v>1.026035583182431</v>
       </c>
       <c r="J14">
-        <v>0.9894114249819165</v>
+        <v>1.018983107988832</v>
       </c>
       <c r="K14">
-        <v>1.001696595151454</v>
+        <v>1.02312775194872</v>
       </c>
       <c r="L14">
-        <v>0.9845539390099057</v>
+        <v>1.019728165315018</v>
       </c>
       <c r="M14">
-        <v>0.9372908771247821</v>
+        <v>1.011551424690516</v>
       </c>
       <c r="N14">
-        <v>1.000282309474847</v>
+        <v>1.010398283178938</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9587556590170192</v>
+        <v>1.012347786678431</v>
       </c>
       <c r="D15">
-        <v>0.9869275909294098</v>
+        <v>1.019573169668349</v>
       </c>
       <c r="E15">
-        <v>0.9695396884256029</v>
+        <v>1.016183929042386</v>
       </c>
       <c r="F15">
-        <v>0.9216603831804084</v>
+        <v>1.008050535275621</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031069657786827</v>
+        <v>1.026051331581025</v>
       </c>
       <c r="J15">
-        <v>0.9897887501524519</v>
+        <v>1.019052563022366</v>
       </c>
       <c r="K15">
-        <v>1.002026992214496</v>
+        <v>1.023186187193805</v>
       </c>
       <c r="L15">
-        <v>0.9849845781398107</v>
+        <v>1.019809950407699</v>
       </c>
       <c r="M15">
-        <v>0.9381468592676212</v>
+        <v>1.01170815903827</v>
       </c>
       <c r="N15">
-        <v>1.000410573174258</v>
+        <v>1.01042166232629</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9622436544728019</v>
+        <v>1.0129773365404</v>
       </c>
       <c r="D16">
-        <v>0.9893996606942771</v>
+        <v>1.020030487488665</v>
       </c>
       <c r="E16">
-        <v>0.9726179978577978</v>
+        <v>1.016778361747512</v>
       </c>
       <c r="F16">
-        <v>0.9272791375515415</v>
+        <v>1.009083771291024</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031838359804195</v>
+        <v>1.026142417377776</v>
       </c>
       <c r="J16">
-        <v>0.9919578328382548</v>
+        <v>1.019456543398079</v>
       </c>
       <c r="K16">
-        <v>1.003925732694611</v>
+        <v>1.02352589960688</v>
       </c>
       <c r="L16">
-        <v>0.9874616999116287</v>
+        <v>1.020285811397201</v>
       </c>
       <c r="M16">
-        <v>0.9430574618061314</v>
+        <v>1.012620044146985</v>
       </c>
       <c r="N16">
-        <v>1.001147878080799</v>
+        <v>1.010557615005945</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9643966793502345</v>
+        <v>1.013372166410732</v>
       </c>
       <c r="D17">
-        <v>0.9909269605178747</v>
+        <v>1.020317213030085</v>
       </c>
       <c r="E17">
-        <v>0.9745204347554803</v>
+        <v>1.017151291117499</v>
       </c>
       <c r="F17">
-        <v>0.930735006222702</v>
+        <v>1.009731703212715</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032309217069021</v>
+        <v>1.026199045185474</v>
       </c>
       <c r="J17">
-        <v>0.9932953048435649</v>
+        <v>1.01970970552546</v>
       </c>
       <c r="K17">
-        <v>1.005095965419038</v>
+        <v>1.023738634978553</v>
       </c>
       <c r="L17">
-        <v>0.9889904655664685</v>
+        <v>1.02058416301985</v>
       </c>
       <c r="M17">
-        <v>0.946077229786802</v>
+        <v>1.013191719972083</v>
       </c>
       <c r="N17">
-        <v>1.001602472619502</v>
+        <v>1.010642785433778</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9656403669094854</v>
+        <v>1.013602439157171</v>
       </c>
       <c r="D18">
-        <v>0.9918096583762531</v>
+        <v>1.020484405539602</v>
       </c>
       <c r="E18">
-        <v>0.9756201802519566</v>
+        <v>1.017368835463697</v>
       </c>
       <c r="F18">
-        <v>0.9327271377078458</v>
+        <v>1.010109565298104</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032579878195136</v>
+        <v>1.026231892190912</v>
       </c>
       <c r="J18">
-        <v>0.9940673735617523</v>
+        <v>1.019857283020871</v>
       </c>
       <c r="K18">
-        <v>1.005771281460925</v>
+        <v>1.023862591293585</v>
       </c>
       <c r="L18">
-        <v>0.9898734430988517</v>
+        <v>1.020758135060509</v>
       </c>
       <c r="M18">
-        <v>0.9478177485975356</v>
+        <v>1.013525053830584</v>
       </c>
       <c r="N18">
-        <v>1.001864876897916</v>
+        <v>1.010692424653677</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9660624141222147</v>
+        <v>1.013680952041254</v>
       </c>
       <c r="D19">
-        <v>0.9921092776419808</v>
+        <v>1.020541405446276</v>
       </c>
       <c r="E19">
-        <v>0.9759935161494218</v>
+        <v>1.01744301604202</v>
       </c>
       <c r="F19">
-        <v>0.9334024974747386</v>
+        <v>1.010238395628735</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032671500404741</v>
+        <v>1.026243061125202</v>
       </c>
       <c r="J19">
-        <v>0.994329288185923</v>
+        <v>1.019907588285291</v>
       </c>
       <c r="K19">
-        <v>1.006000336462057</v>
+        <v>1.02390483538739</v>
       </c>
       <c r="L19">
-        <v>0.9901730636107127</v>
+        <v>1.020817446335207</v>
       </c>
       <c r="M19">
-        <v>0.9484077679957226</v>
+        <v>1.013638692783656</v>
       </c>
       <c r="N19">
-        <v>1.00195389146479</v>
+        <v>1.010709343693753</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9641669450578575</v>
+        <v>1.013329807480826</v>
       </c>
       <c r="D20">
-        <v>0.9907639446196911</v>
+        <v>1.020286455228858</v>
       </c>
       <c r="E20">
-        <v>0.9743173545527506</v>
+        <v>1.017111277163594</v>
       </c>
       <c r="F20">
-        <v>0.930366691355166</v>
+        <v>1.009662193099778</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03225911261617</v>
+        <v>1.02619298849004</v>
       </c>
       <c r="J20">
-        <v>0.9931526461846049</v>
+        <v>1.019682552701342</v>
       </c>
       <c r="K20">
-        <v>1.004971166661921</v>
+        <v>1.023715823793633</v>
       </c>
       <c r="L20">
-        <v>0.9888273527416035</v>
+        <v>1.020552158038042</v>
       </c>
       <c r="M20">
-        <v>0.9457554156435125</v>
+        <v>1.013130396511523</v>
       </c>
       <c r="N20">
-        <v>1.001553985717143</v>
+        <v>1.010633651514146</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.957858838361582</v>
+        <v>1.012187907598965</v>
       </c>
       <c r="D21">
-        <v>0.9862924420956577</v>
+        <v>1.019457003691081</v>
       </c>
       <c r="E21">
-        <v>0.9687489402244989</v>
+        <v>1.016033006494277</v>
       </c>
       <c r="F21">
-        <v>0.9202115358188829</v>
+        <v>1.007788112289557</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030870887496726</v>
+        <v>1.026028046197552</v>
       </c>
       <c r="J21">
-        <v>0.9892305962940096</v>
+        <v>1.018949907679689</v>
       </c>
       <c r="K21">
-        <v>1.001538246606939</v>
+        <v>1.023099816190466</v>
       </c>
       <c r="L21">
-        <v>0.9843475882981418</v>
+        <v>1.019689073987355</v>
       </c>
       <c r="M21">
-        <v>0.9368804673029122</v>
+        <v>1.011476508223645</v>
       </c>
       <c r="N21">
-        <v>1.000220840190697</v>
+        <v>1.010387107138416</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9537735118664055</v>
+        <v>1.011469716714137</v>
       </c>
       <c r="D22">
-        <v>0.9834016101831459</v>
+        <v>1.018935046646382</v>
       </c>
       <c r="E22">
-        <v>0.9651505633199942</v>
+        <v>1.015355238230583</v>
       </c>
       <c r="F22">
-        <v>0.9135888459052334</v>
+        <v>1.006609153235295</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029959937356336</v>
+        <v>1.02592269133385</v>
       </c>
       <c r="J22">
-        <v>0.9866857977900653</v>
+        <v>1.018488468738044</v>
       </c>
       <c r="K22">
-        <v>0.9993092149326788</v>
+        <v>1.022711346364103</v>
       </c>
       <c r="L22">
-        <v>0.9814455164868215</v>
+        <v>1.019145949848278</v>
       </c>
       <c r="M22">
-        <v>0.931091205659514</v>
+        <v>1.010435556360838</v>
       </c>
       <c r="N22">
-        <v>0.9993557659086152</v>
+        <v>1.010231739858003</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9559510246378995</v>
+        <v>1.011850465842513</v>
       </c>
       <c r="D23">
-        <v>0.9849419324644528</v>
+        <v>1.0192117884462</v>
       </c>
       <c r="E23">
-        <v>0.9670677654255284</v>
+        <v>1.015714518903987</v>
       </c>
       <c r="F23">
-        <v>0.9171235008177563</v>
+        <v>1.007234206212462</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030446578434242</v>
+        <v>1.0259786982628</v>
       </c>
       <c r="J23">
-        <v>0.9880426423318283</v>
+        <v>1.018733161987703</v>
       </c>
       <c r="K23">
-        <v>1.0004978297558</v>
+        <v>1.022917391783946</v>
       </c>
       <c r="L23">
-        <v>0.9829924154151573</v>
+        <v>1.019433914962615</v>
       </c>
       <c r="M23">
-        <v>0.9341811488067581</v>
+        <v>1.01098749011452</v>
       </c>
       <c r="N23">
-        <v>0.99981701253361</v>
+        <v>1.010314136718288</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9642707894944815</v>
+        <v>1.013348947734252</v>
       </c>
       <c r="D24">
-        <v>0.9908376296112872</v>
+        <v>1.02030035350851</v>
       </c>
       <c r="E24">
-        <v>0.9744091483077625</v>
+        <v>1.017129357681929</v>
       </c>
       <c r="F24">
-        <v>0.9305331897149742</v>
+        <v>1.009693601928644</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032281764943498</v>
+        <v>1.026195725815482</v>
       </c>
       <c r="J24">
-        <v>0.9932171323217605</v>
+        <v>1.01969482216443</v>
       </c>
       <c r="K24">
-        <v>1.00502758023215</v>
+        <v>1.023726131583435</v>
       </c>
       <c r="L24">
-        <v>0.9889010832988783</v>
+        <v>1.020566619870235</v>
       </c>
       <c r="M24">
-        <v>0.9459008938446754</v>
+        <v>1.013158106297246</v>
       </c>
       <c r="N24">
-        <v>1.001575903347176</v>
+        <v>1.01063777886045</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9734531990061486</v>
+        <v>1.015086882906321</v>
       </c>
       <c r="D25">
-        <v>0.9973618761568466</v>
+        <v>1.021561625230809</v>
       </c>
       <c r="E25">
-        <v>0.9825426231603567</v>
+        <v>1.018772023951865</v>
       </c>
       <c r="F25">
-        <v>0.9451769686487719</v>
+        <v>1.012545048641716</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034256060153857</v>
+        <v>1.026440394029039</v>
       </c>
       <c r="J25">
-        <v>0.9989082303235504</v>
+        <v>1.020807338259856</v>
       </c>
       <c r="K25">
-        <v>1.010001284112877</v>
+        <v>1.024659584455405</v>
       </c>
       <c r="L25">
-        <v>0.9954181257227145</v>
+        <v>1.021879046832401</v>
       </c>
       <c r="M25">
-        <v>0.9586904621403108</v>
+        <v>1.015672501062421</v>
       </c>
       <c r="N25">
-        <v>1.003509799885773</v>
+        <v>1.011011808549178</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_190/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_190/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016472322111586</v>
+        <v>0.9804410043001933</v>
       </c>
       <c r="D2">
-        <v>1.022566044205062</v>
+        <v>1.002336922838613</v>
       </c>
       <c r="E2">
-        <v>1.020082903372248</v>
+        <v>0.9887550178567751</v>
       </c>
       <c r="F2">
-        <v>1.014817610740538</v>
+        <v>0.9562268532962845</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026629750270149</v>
+        <v>1.035715646689668</v>
       </c>
       <c r="J2">
-        <v>1.021691936902136</v>
+        <v>1.003222885258769</v>
       </c>
       <c r="K2">
-        <v>1.025400048454079</v>
+        <v>1.013763796343544</v>
       </c>
       <c r="L2">
-        <v>1.022924240489359</v>
+        <v>1.000373268467224</v>
       </c>
       <c r="M2">
-        <v>1.017674625892047</v>
+        <v>0.9683316874304099</v>
       </c>
       <c r="N2">
-        <v>1.011308899802676</v>
+        <v>1.004975184755365</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017477873993032</v>
+        <v>0.9853391621648852</v>
       </c>
       <c r="D3">
-        <v>1.023294433916697</v>
+        <v>1.005828391497979</v>
       </c>
       <c r="E3">
-        <v>1.021035135247171</v>
+        <v>0.9931220054374871</v>
       </c>
       <c r="F3">
-        <v>1.016466835624503</v>
+        <v>0.9639306449474229</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026763881074105</v>
+        <v>1.036713038229694</v>
       </c>
       <c r="J3">
-        <v>1.022332659818028</v>
+        <v>1.006237635265322</v>
       </c>
       <c r="K3">
-        <v>1.025935345463548</v>
+        <v>1.01638723621396</v>
       </c>
       <c r="L3">
-        <v>1.023682234416088</v>
+        <v>1.0038436545821</v>
       </c>
       <c r="M3">
-        <v>1.019126537224389</v>
+        <v>0.9750468351247576</v>
       </c>
       <c r="N3">
-        <v>1.011523902568712</v>
+        <v>1.005998491944864</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018128356564159</v>
+        <v>0.9884330163383808</v>
       </c>
       <c r="D4">
-        <v>1.023765331290641</v>
+        <v>1.008035146195865</v>
       </c>
       <c r="E4">
-        <v>1.021651490862059</v>
+        <v>0.9958858177092629</v>
       </c>
       <c r="F4">
-        <v>1.01753364878944</v>
+        <v>0.9687809185380887</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026849118350119</v>
+        <v>1.037330820980387</v>
       </c>
       <c r="J4">
-        <v>1.022746527042803</v>
+        <v>1.008137307344692</v>
       </c>
       <c r="K4">
-        <v>1.026280635116439</v>
+        <v>1.018037551838384</v>
       </c>
       <c r="L4">
-        <v>1.02417229136844</v>
+        <v>1.006034152225294</v>
       </c>
       <c r="M4">
-        <v>1.020065227862756</v>
+        <v>0.9792713292168891</v>
       </c>
       <c r="N4">
-        <v>1.011662695540496</v>
+        <v>1.006642987012306</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018401778038899</v>
+        <v>0.9897163567238142</v>
       </c>
       <c r="D5">
-        <v>1.023963195951036</v>
+        <v>1.008950782066546</v>
       </c>
       <c r="E5">
-        <v>1.021910654573872</v>
+        <v>0.9970335314311213</v>
       </c>
       <c r="F5">
-        <v>1.017982061317517</v>
+        <v>0.9707895360910265</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026884579888298</v>
+        <v>1.037584104526414</v>
       </c>
       <c r="J5">
-        <v>1.022920344186586</v>
+        <v>1.008924189618392</v>
       </c>
       <c r="K5">
-        <v>1.026425535648854</v>
+        <v>1.018720444904474</v>
       </c>
       <c r="L5">
-        <v>1.024378212258574</v>
+        <v>1.006942388746154</v>
       </c>
       <c r="M5">
-        <v>1.020459669586501</v>
+        <v>0.981019954689573</v>
       </c>
       <c r="N5">
-        <v>1.011720965636522</v>
+        <v>1.006909867327793</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018447684306448</v>
+        <v>0.9899308414887872</v>
       </c>
       <c r="D6">
-        <v>1.023996412394007</v>
+        <v>1.009103825990094</v>
       </c>
       <c r="E6">
-        <v>1.021954172117488</v>
+        <v>0.9972254229096391</v>
       </c>
       <c r="F6">
-        <v>1.018057347516927</v>
+        <v>0.9711250562324167</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026890512206775</v>
+        <v>1.037626259596483</v>
       </c>
       <c r="J6">
-        <v>1.022949518741679</v>
+        <v>1.009055635726242</v>
       </c>
       <c r="K6">
-        <v>1.026449849887026</v>
+        <v>1.018834477795628</v>
       </c>
       <c r="L6">
-        <v>1.024412781487792</v>
+        <v>1.007094158849034</v>
       </c>
       <c r="M6">
-        <v>1.020525887483533</v>
+        <v>0.9813119950397985</v>
       </c>
       <c r="N6">
-        <v>1.011730744843457</v>
+        <v>1.006954443779712</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018132010196823</v>
+        <v>0.9884502314426717</v>
       </c>
       <c r="D7">
-        <v>1.023767975563432</v>
+        <v>1.00804742784209</v>
       </c>
       <c r="E7">
-        <v>1.021654953631876</v>
+        <v>0.9959012084800737</v>
       </c>
       <c r="F7">
-        <v>1.017539640788439</v>
+        <v>0.9688078751268628</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026849593651607</v>
+        <v>1.037334230419928</v>
       </c>
       <c r="J7">
-        <v>1.022748850273686</v>
+        <v>1.008147867213542</v>
       </c>
       <c r="K7">
-        <v>1.026282572302959</v>
+        <v>1.018046718999274</v>
       </c>
       <c r="L7">
-        <v>1.024175043282067</v>
+        <v>1.006046337143597</v>
       </c>
       <c r="M7">
-        <v>1.020070499127174</v>
+        <v>0.9792947999709647</v>
       </c>
       <c r="N7">
-        <v>1.011663474456582</v>
+        <v>1.006646568849644</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016812190223494</v>
+        <v>0.9821124947757699</v>
       </c>
       <c r="D8">
-        <v>1.022812293673144</v>
+        <v>1.003528039147166</v>
       </c>
       <c r="E8">
-        <v>1.020404673873604</v>
+        <v>0.9902440762873145</v>
       </c>
       <c r="F8">
-        <v>1.015375049801406</v>
+        <v>0.9588593751479597</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026675402174423</v>
+        <v>1.036058542696022</v>
       </c>
       <c r="J8">
-        <v>1.021908622307984</v>
+        <v>1.004252613209083</v>
       </c>
       <c r="K8">
-        <v>1.025581178958053</v>
+        <v>1.014660432043385</v>
       </c>
       <c r="L8">
-        <v>1.023180494479121</v>
+        <v>1.001557839805469</v>
       </c>
       <c r="M8">
-        <v>1.018165473980264</v>
+        <v>0.9706270478721499</v>
       </c>
       <c r="N8">
-        <v>1.011381629010824</v>
+        <v>1.005324771801847</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014485103668999</v>
+        <v>0.9703278382388214</v>
       </c>
       <c r="D9">
-        <v>1.021125054074081</v>
+        <v>0.9951394163065738</v>
       </c>
       <c r="E9">
-        <v>1.018203016925073</v>
+        <v>0.9797705412935042</v>
       </c>
       <c r="F9">
-        <v>1.011557802582353</v>
+        <v>0.9402095754768323</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026356554546336</v>
+        <v>1.033590744182116</v>
       </c>
       <c r="J9">
-        <v>1.020422468778862</v>
+        <v>0.9969737363646207</v>
       </c>
       <c r="K9">
-        <v>1.024336931806873</v>
+        <v>1.008311848431903</v>
       </c>
       <c r="L9">
-        <v>1.021424765091927</v>
+        <v>0.9932005818271363</v>
       </c>
       <c r="M9">
-        <v>1.014802231285352</v>
+        <v>0.9543534010166015</v>
       </c>
       <c r="N9">
-        <v>1.010882462930287</v>
+        <v>1.002852542110022</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012932713573918</v>
+        <v>0.9619986684983753</v>
       </c>
       <c r="D10">
-        <v>1.019998078023773</v>
+        <v>0.9892259391739167</v>
       </c>
       <c r="E10">
-        <v>1.016736219957202</v>
+        <v>0.9724016372932835</v>
       </c>
       <c r="F10">
-        <v>1.009010539670433</v>
+        <v>0.9268853166380721</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026135993124235</v>
+        <v>1.031784602456836</v>
       </c>
       <c r="J10">
-        <v>1.019427921756769</v>
+        <v>0.9918055755942667</v>
       </c>
       <c r="K10">
-        <v>1.023501841050101</v>
+        <v>1.003792486081499</v>
       </c>
       <c r="L10">
-        <v>1.02025208781723</v>
+        <v>0.9872877321728537</v>
       </c>
       <c r="M10">
-        <v>1.012555423550064</v>
+        <v>0.9427133090949296</v>
       </c>
       <c r="N10">
-        <v>1.010547984612515</v>
+        <v>1.001096125418985</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.012260260053303</v>
+        <v>0.9582652505208449</v>
       </c>
       <c r="D11">
-        <v>1.019509575322183</v>
+        <v>0.9865802486102586</v>
       </c>
       <c r="E11">
-        <v>1.016101303806831</v>
+        <v>0.9691072465123687</v>
       </c>
       <c r="F11">
-        <v>1.007906871740349</v>
+        <v>0.9208683263707489</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026038591519975</v>
+        <v>1.030961019619954</v>
       </c>
       <c r="J11">
-        <v>1.018996366884445</v>
+        <v>0.9894835570358959</v>
       </c>
       <c r="K11">
-        <v>1.023138907842106</v>
+        <v>1.001759758220149</v>
       </c>
       <c r="L11">
-        <v>1.019743777373642</v>
+        <v>0.9846362567933497</v>
       </c>
       <c r="M11">
-        <v>1.011581344162813</v>
+        <v>0.9374545539053323</v>
       </c>
       <c r="N11">
-        <v>1.010402746352187</v>
+        <v>1.000306829328865</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012010440701822</v>
+        <v>0.9568580349295724</v>
       </c>
       <c r="D12">
-        <v>1.019328046255483</v>
+        <v>0.9855838790899719</v>
       </c>
       <c r="E12">
-        <v>1.015865499430317</v>
+        <v>0.9678668598882525</v>
       </c>
       <c r="F12">
-        <v>1.007496808707299</v>
+        <v>0.9185926206413584</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026002127198937</v>
+        <v>1.030648547854142</v>
       </c>
       <c r="J12">
-        <v>1.018835930694771</v>
+        <v>0.988607516771533</v>
       </c>
       <c r="K12">
-        <v>1.02300389758628</v>
+        <v>1.000992580804181</v>
       </c>
       <c r="L12">
-        <v>1.01955488726339</v>
+        <v>0.983636706222673</v>
       </c>
       <c r="M12">
-        <v>1.01121934052614</v>
+        <v>0.9354653642892432</v>
       </c>
       <c r="N12">
-        <v>1.010348737047762</v>
+        <v>1.000009034385885</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012064029640546</v>
+        <v>0.9571608373490496</v>
       </c>
       <c r="D13">
-        <v>1.019366988361243</v>
+        <v>0.9857982357743109</v>
       </c>
       <c r="E13">
-        <v>1.015916078845573</v>
+        <v>0.9681337024607208</v>
       </c>
       <c r="F13">
-        <v>1.00758477380829</v>
+        <v>0.9190826721347167</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026009961818038</v>
+        <v>1.030715876311736</v>
       </c>
       <c r="J13">
-        <v>1.018870351037941</v>
+        <v>0.9887960584718787</v>
       </c>
       <c r="K13">
-        <v>1.023032866832798</v>
+        <v>1.001157704733689</v>
       </c>
       <c r="L13">
-        <v>1.019595408511232</v>
+        <v>0.9838517941050474</v>
       </c>
       <c r="M13">
-        <v>1.01129700012422</v>
+        <v>0.9358937274173671</v>
       </c>
       <c r="N13">
-        <v>1.010360325006422</v>
+        <v>1.000073126348673</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.012239610735175</v>
+        <v>0.9581493556095722</v>
       </c>
       <c r="D14">
-        <v>1.01949457165269</v>
+        <v>0.9864981719507563</v>
       </c>
       <c r="E14">
-        <v>1.016081811500418</v>
+        <v>0.969005063509651</v>
       </c>
       <c r="F14">
-        <v>1.007872978128622</v>
+        <v>0.9206810687662135</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026035583182431</v>
+        <v>1.030935326326485</v>
       </c>
       <c r="J14">
-        <v>1.018983107988832</v>
+        <v>0.9894114249819168</v>
       </c>
       <c r="K14">
-        <v>1.02312775194872</v>
+        <v>1.001696595151454</v>
       </c>
       <c r="L14">
-        <v>1.019728165315018</v>
+        <v>0.9845539390099057</v>
       </c>
       <c r="M14">
-        <v>1.011551424690516</v>
+        <v>0.9372908771247823</v>
       </c>
       <c r="N14">
-        <v>1.010398283178938</v>
+        <v>1.000282309474847</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.012347786678431</v>
+        <v>0.9587556590170204</v>
       </c>
       <c r="D15">
-        <v>1.019573169668349</v>
+        <v>0.9869275909294106</v>
       </c>
       <c r="E15">
-        <v>1.016183929042386</v>
+        <v>0.9695396884256042</v>
       </c>
       <c r="F15">
-        <v>1.008050535275621</v>
+        <v>0.9216603831804099</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026051331581025</v>
+        <v>1.031069657786827</v>
       </c>
       <c r="J15">
-        <v>1.019052563022366</v>
+        <v>0.989788750152453</v>
       </c>
       <c r="K15">
-        <v>1.023186187193805</v>
+        <v>1.002026992214497</v>
       </c>
       <c r="L15">
-        <v>1.019809950407699</v>
+        <v>0.984984578139812</v>
       </c>
       <c r="M15">
-        <v>1.01170815903827</v>
+        <v>0.9381468592676229</v>
       </c>
       <c r="N15">
-        <v>1.01042166232629</v>
+        <v>1.000410573174258</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.0129773365404</v>
+        <v>0.9622436544728018</v>
       </c>
       <c r="D16">
-        <v>1.020030487488665</v>
+        <v>0.9893996606942769</v>
       </c>
       <c r="E16">
-        <v>1.016778361747512</v>
+        <v>0.9726179978577978</v>
       </c>
       <c r="F16">
-        <v>1.009083771291024</v>
+        <v>0.9272791375515412</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026142417377776</v>
+        <v>1.031838359804195</v>
       </c>
       <c r="J16">
-        <v>1.019456543398079</v>
+        <v>0.9919578328382547</v>
       </c>
       <c r="K16">
-        <v>1.02352589960688</v>
+        <v>1.003925732694611</v>
       </c>
       <c r="L16">
-        <v>1.020285811397201</v>
+        <v>0.9874616999116287</v>
       </c>
       <c r="M16">
-        <v>1.012620044146985</v>
+        <v>0.9430574618061313</v>
       </c>
       <c r="N16">
-        <v>1.010557615005945</v>
+        <v>1.001147878080799</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013372166410732</v>
+        <v>0.9643966793502347</v>
       </c>
       <c r="D17">
-        <v>1.020317213030085</v>
+        <v>0.9909269605178748</v>
       </c>
       <c r="E17">
-        <v>1.017151291117499</v>
+        <v>0.9745204347554806</v>
       </c>
       <c r="F17">
-        <v>1.009731703212715</v>
+        <v>0.9307350062227024</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026199045185474</v>
+        <v>1.032309217069021</v>
       </c>
       <c r="J17">
-        <v>1.01970970552546</v>
+        <v>0.9932953048435649</v>
       </c>
       <c r="K17">
-        <v>1.023738634978553</v>
+        <v>1.005095965419038</v>
       </c>
       <c r="L17">
-        <v>1.02058416301985</v>
+        <v>0.9889904655664686</v>
       </c>
       <c r="M17">
-        <v>1.013191719972083</v>
+        <v>0.9460772297868024</v>
       </c>
       <c r="N17">
-        <v>1.010642785433778</v>
+        <v>1.001602472619502</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013602439157171</v>
+        <v>0.9656403669094854</v>
       </c>
       <c r="D18">
-        <v>1.020484405539602</v>
+        <v>0.9918096583762532</v>
       </c>
       <c r="E18">
-        <v>1.017368835463697</v>
+        <v>0.9756201802519568</v>
       </c>
       <c r="F18">
-        <v>1.010109565298104</v>
+        <v>0.9327271377078454</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026231892190912</v>
+        <v>1.032579878195136</v>
       </c>
       <c r="J18">
-        <v>1.019857283020871</v>
+        <v>0.9940673735617525</v>
       </c>
       <c r="K18">
-        <v>1.023862591293585</v>
+        <v>1.005771281460925</v>
       </c>
       <c r="L18">
-        <v>1.020758135060509</v>
+        <v>0.9898734430988518</v>
       </c>
       <c r="M18">
-        <v>1.013525053830584</v>
+        <v>0.9478177485975358</v>
       </c>
       <c r="N18">
-        <v>1.010692424653677</v>
+        <v>1.001864876897916</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013680952041254</v>
+        <v>0.9660624141222143</v>
       </c>
       <c r="D19">
-        <v>1.020541405446276</v>
+        <v>0.9921092776419806</v>
       </c>
       <c r="E19">
-        <v>1.01744301604202</v>
+        <v>0.9759935161494213</v>
       </c>
       <c r="F19">
-        <v>1.010238395628735</v>
+        <v>0.9334024974747382</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026243061125202</v>
+        <v>1.032671500404741</v>
       </c>
       <c r="J19">
-        <v>1.019907588285291</v>
+        <v>0.9943292881859227</v>
       </c>
       <c r="K19">
-        <v>1.02390483538739</v>
+        <v>1.006000336462057</v>
       </c>
       <c r="L19">
-        <v>1.020817446335207</v>
+        <v>0.9901730636107122</v>
       </c>
       <c r="M19">
-        <v>1.013638692783656</v>
+        <v>0.9484077679957222</v>
       </c>
       <c r="N19">
-        <v>1.010709343693753</v>
+        <v>1.00195389146479</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013329807480826</v>
+        <v>0.9641669450578577</v>
       </c>
       <c r="D20">
-        <v>1.020286455228858</v>
+        <v>0.9907639446196913</v>
       </c>
       <c r="E20">
-        <v>1.017111277163594</v>
+        <v>0.9743173545527504</v>
       </c>
       <c r="F20">
-        <v>1.009662193099778</v>
+        <v>0.9303666913551664</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02619298849004</v>
+        <v>1.03225911261617</v>
       </c>
       <c r="J20">
-        <v>1.019682552701342</v>
+        <v>0.993152646184605</v>
       </c>
       <c r="K20">
-        <v>1.023715823793633</v>
+        <v>1.004971166661921</v>
       </c>
       <c r="L20">
-        <v>1.020552158038042</v>
+        <v>0.9888273527416034</v>
       </c>
       <c r="M20">
-        <v>1.013130396511523</v>
+        <v>0.945755415643513</v>
       </c>
       <c r="N20">
-        <v>1.010633651514146</v>
+        <v>1.001553985717143</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.012187907598965</v>
+        <v>0.957858838361583</v>
       </c>
       <c r="D21">
-        <v>1.019457003691081</v>
+        <v>0.9862924420956585</v>
       </c>
       <c r="E21">
-        <v>1.016033006494277</v>
+        <v>0.9687489402244999</v>
       </c>
       <c r="F21">
-        <v>1.007788112289557</v>
+        <v>0.9202115358188836</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026028046197552</v>
+        <v>1.030870887496727</v>
       </c>
       <c r="J21">
-        <v>1.018949907679689</v>
+        <v>0.9892305962940104</v>
       </c>
       <c r="K21">
-        <v>1.023099816190466</v>
+        <v>1.00153824660694</v>
       </c>
       <c r="L21">
-        <v>1.019689073987355</v>
+        <v>0.9843475882981431</v>
       </c>
       <c r="M21">
-        <v>1.011476508223645</v>
+        <v>0.9368804673029132</v>
       </c>
       <c r="N21">
-        <v>1.010387107138416</v>
+        <v>1.000220840190697</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.011469716714137</v>
+        <v>0.9537735118664058</v>
       </c>
       <c r="D22">
-        <v>1.018935046646382</v>
+        <v>0.9834016101831462</v>
       </c>
       <c r="E22">
-        <v>1.015355238230583</v>
+        <v>0.9651505633199944</v>
       </c>
       <c r="F22">
-        <v>1.006609153235295</v>
+        <v>0.9135888459052339</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02592269133385</v>
+        <v>1.029959937356336</v>
       </c>
       <c r="J22">
-        <v>1.018488468738044</v>
+        <v>0.9866857977900655</v>
       </c>
       <c r="K22">
-        <v>1.022711346364103</v>
+        <v>0.9993092149326791</v>
       </c>
       <c r="L22">
-        <v>1.019145949848278</v>
+        <v>0.9814455164868218</v>
       </c>
       <c r="M22">
-        <v>1.010435556360838</v>
+        <v>0.9310912056595145</v>
       </c>
       <c r="N22">
-        <v>1.010231739858003</v>
+        <v>0.9993557659086153</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011850465842513</v>
+        <v>0.9559510246378997</v>
       </c>
       <c r="D23">
-        <v>1.0192117884462</v>
+        <v>0.9849419324644531</v>
       </c>
       <c r="E23">
-        <v>1.015714518903987</v>
+        <v>0.9670677654255286</v>
       </c>
       <c r="F23">
-        <v>1.007234206212462</v>
+        <v>0.9171235008177565</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0259786982628</v>
+        <v>1.030446578434242</v>
       </c>
       <c r="J23">
-        <v>1.018733161987703</v>
+        <v>0.9880426423318286</v>
       </c>
       <c r="K23">
-        <v>1.022917391783946</v>
+        <v>1.000497829755801</v>
       </c>
       <c r="L23">
-        <v>1.019433914962615</v>
+        <v>0.9829924154151575</v>
       </c>
       <c r="M23">
-        <v>1.01098749011452</v>
+        <v>0.9341811488067582</v>
       </c>
       <c r="N23">
-        <v>1.010314136718288</v>
+        <v>0.99981701253361</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013348947734252</v>
+        <v>0.9642707894944812</v>
       </c>
       <c r="D24">
-        <v>1.02030035350851</v>
+        <v>0.9908376296112869</v>
       </c>
       <c r="E24">
-        <v>1.017129357681929</v>
+        <v>0.9744091483077619</v>
       </c>
       <c r="F24">
-        <v>1.009693601928644</v>
+        <v>0.930533189714974</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026195725815482</v>
+        <v>1.032281764943498</v>
       </c>
       <c r="J24">
-        <v>1.01969482216443</v>
+        <v>0.99321713232176</v>
       </c>
       <c r="K24">
-        <v>1.023726131583435</v>
+        <v>1.005027580232149</v>
       </c>
       <c r="L24">
-        <v>1.020566619870235</v>
+        <v>0.9889010832988777</v>
       </c>
       <c r="M24">
-        <v>1.013158106297246</v>
+        <v>0.9459008938446752</v>
       </c>
       <c r="N24">
-        <v>1.01063777886045</v>
+        <v>1.001575903347176</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015086882906321</v>
+        <v>0.9734531990061491</v>
       </c>
       <c r="D25">
-        <v>1.021561625230809</v>
+        <v>0.997361876156847</v>
       </c>
       <c r="E25">
-        <v>1.018772023951865</v>
+        <v>0.9825426231603572</v>
       </c>
       <c r="F25">
-        <v>1.012545048641716</v>
+        <v>0.9451769686487729</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026440394029039</v>
+        <v>1.034256060153857</v>
       </c>
       <c r="J25">
-        <v>1.020807338259856</v>
+        <v>0.9989082303235509</v>
       </c>
       <c r="K25">
-        <v>1.024659584455405</v>
+        <v>1.010001284112878</v>
       </c>
       <c r="L25">
-        <v>1.021879046832401</v>
+        <v>0.9954181257227152</v>
       </c>
       <c r="M25">
-        <v>1.015672501062421</v>
+        <v>0.9586904621403116</v>
       </c>
       <c r="N25">
-        <v>1.011011808549178</v>
+        <v>1.003509799885773</v>
       </c>
     </row>
   </sheetData>
